--- a/Informes/Informe_Transacciones_2025-07-22.xlsx
+++ b/Informes/Informe_Transacciones_2025-07-22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
   <si>
     <t>INFORME DIARIO TRANSACCIONES INDER</t>
   </si>
@@ -68,6 +68,72 @@
     <t xml:space="preserve">Paypad: Goretti </t>
   </si>
   <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>sanchez</t>
+  </si>
+  <si>
+    <t>diegojavisanchez2004@gmail.com</t>
+  </si>
+  <si>
+    <t>cra 55 #48 01</t>
+  </si>
+  <si>
+    <t>2004-12-24</t>
+  </si>
+  <si>
+    <t>Cédula de ciudadanía</t>
+  </si>
+  <si>
+    <t>1015067900</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>3225623133</t>
+  </si>
+  <si>
+    <t>Turco 1</t>
+  </si>
+  <si>
+    <t>Inder Turco 1</t>
+  </si>
+  <si>
+    <t>22/07/2025 16:49:32</t>
+  </si>
+  <si>
+    <t>Aprobada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goretti </t>
+  </si>
+  <si>
+    <t>mario alberto</t>
+  </si>
+  <si>
+    <t>vergara londoño</t>
+  </si>
+  <si>
+    <t>mvergaralodono@gmail.com</t>
+  </si>
+  <si>
+    <t>Vda. Potrerito</t>
+  </si>
+  <si>
+    <t>1969-10-15</t>
+  </si>
+  <si>
+    <t>98577639</t>
+  </si>
+  <si>
+    <t>3053865378</t>
+  </si>
+  <si>
+    <t>22/07/2025 18:06:41</t>
+  </si>
+  <si>
     <t>margarita</t>
   </si>
   <si>
@@ -83,9 +149,6 @@
     <t>1968-06-06</t>
   </si>
   <si>
-    <t>Cédula de ciudadanía</t>
-  </si>
-  <si>
     <t>42896656</t>
   </si>
   <si>
@@ -95,45 +158,9 @@
     <t>3136656956</t>
   </si>
   <si>
-    <t>Turco 1</t>
-  </si>
-  <si>
-    <t>Inder Turco 1</t>
-  </si>
-  <si>
     <t>22/07/2025 15:50:40</t>
   </si>
   <si>
-    <t>Aprobada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goretti </t>
-  </si>
-  <si>
-    <t>diego</t>
-  </si>
-  <si>
-    <t>sanchez</t>
-  </si>
-  <si>
-    <t>diegojavisanchez2004@gmail.com</t>
-  </si>
-  <si>
-    <t>cra 55 #48 01</t>
-  </si>
-  <si>
-    <t>2004-12-24</t>
-  </si>
-  <si>
-    <t>1015067900</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>3225623133</t>
-  </si>
-  <si>
     <t>Piscina Semiolimpica</t>
   </si>
   <si>
@@ -254,7 +281,7 @@
     <t xml:space="preserve">Subtotal Goretti </t>
   </si>
   <si>
-    <t>Transacciones: 9</t>
+    <t>Transacciones: 11</t>
   </si>
   <si>
     <t>Paypad: Inder Gran Avenida</t>
@@ -1106,16 +1133,301 @@
     <t>22/07/2025 15:06:50</t>
   </si>
   <si>
+    <t>jhoana</t>
+  </si>
+  <si>
+    <t>cardeño</t>
+  </si>
+  <si>
+    <t>isaacjoha2022@gmail.com</t>
+  </si>
+  <si>
+    <t>barrio obrero</t>
+  </si>
+  <si>
+    <t>1986-01-28</t>
+  </si>
+  <si>
+    <t>42694694</t>
+  </si>
+  <si>
+    <t>3246821315</t>
+  </si>
+  <si>
+    <t>22/07/2025 18:11:26</t>
+  </si>
+  <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>pemberthy</t>
+  </si>
+  <si>
+    <t>pemberthy.com@gmail.com</t>
+  </si>
+  <si>
+    <t>calle32d#55 30</t>
+  </si>
+  <si>
+    <t>1973-10-22</t>
+  </si>
+  <si>
+    <t>43812329</t>
+  </si>
+  <si>
+    <t>3059061228</t>
+  </si>
+  <si>
+    <t>22/07/2025 18:21:32</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>lopez suarez</t>
+  </si>
+  <si>
+    <t>nelosuar@hotmail.com</t>
+  </si>
+  <si>
+    <t>cr 63#111ee84</t>
+  </si>
+  <si>
+    <t>1967-07-31</t>
+  </si>
+  <si>
+    <t>71112957</t>
+  </si>
+  <si>
+    <t>3106983384</t>
+  </si>
+  <si>
+    <t>22/07/2025 18:26:22</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>sepulveda</t>
+  </si>
+  <si>
+    <t>correoniincontrado@hotmail.com</t>
+  </si>
+  <si>
+    <t>calle 109a#64d106</t>
+  </si>
+  <si>
+    <t>2010-10-12</t>
+  </si>
+  <si>
+    <t>Tarjeta de Identidad</t>
+  </si>
+  <si>
+    <t>1020226368</t>
+  </si>
+  <si>
+    <t>3021197638</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:25:35</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>carmona</t>
+  </si>
+  <si>
+    <t>correonoincontrado@hotmail.com</t>
+  </si>
+  <si>
+    <t>1946-01-19</t>
+  </si>
+  <si>
+    <t>8265934</t>
+  </si>
+  <si>
+    <t>3127392215</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:28:59</t>
+  </si>
+  <si>
+    <t>oscar david</t>
+  </si>
+  <si>
+    <t>arango mejia</t>
+  </si>
+  <si>
+    <t>oarangom168@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calle36  52   27</t>
+  </si>
+  <si>
+    <t>1968-08-19</t>
+  </si>
+  <si>
+    <t>98571750</t>
+  </si>
+  <si>
+    <t>3154092489</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:50:19</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>higuita zapata</t>
+  </si>
+  <si>
+    <t>jameshiguita1020@icloud.com</t>
+  </si>
+  <si>
+    <t>calle21#62a107</t>
+  </si>
+  <si>
+    <t>1993-08-08</t>
+  </si>
+  <si>
+    <t>1020455437</t>
+  </si>
+  <si>
+    <t>3146292307</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:55:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHON DAIRON </t>
+  </si>
+  <si>
+    <t>BOHORQUEZ</t>
+  </si>
+  <si>
+    <t>jhon0522@gmail.com</t>
+  </si>
+  <si>
+    <t>calle 53a55-19</t>
+  </si>
+  <si>
+    <t>1969-09-25</t>
+  </si>
+  <si>
+    <t>9849522</t>
+  </si>
+  <si>
+    <t>3148842119</t>
+  </si>
+  <si>
+    <t>22/07/2025 16:53:21</t>
+  </si>
+  <si>
+    <t>camilo</t>
+  </si>
+  <si>
+    <t>rondan</t>
+  </si>
+  <si>
+    <t>kmilorondan@gmail.com</t>
+  </si>
+  <si>
+    <t>carre 55a 3428</t>
+  </si>
+  <si>
+    <t>1986-07-23</t>
+  </si>
+  <si>
+    <t>98714726</t>
+  </si>
+  <si>
+    <t>3216572125</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:03:02</t>
+  </si>
+  <si>
+    <t>maira</t>
+  </si>
+  <si>
+    <t>castro</t>
+  </si>
+  <si>
+    <t>mayra.8092@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calle3  56  26</t>
+  </si>
+  <si>
+    <t>1992-09-02</t>
+  </si>
+  <si>
+    <t>1035863018</t>
+  </si>
+  <si>
+    <t>3245083091</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:09:58</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>cuartas</t>
+  </si>
+  <si>
+    <t>victorh230@hotmail.com</t>
+  </si>
+  <si>
+    <t>calle56a#63aa10</t>
+  </si>
+  <si>
+    <t>1992-01-06</t>
+  </si>
+  <si>
+    <t>1020446582</t>
+  </si>
+  <si>
+    <t>3232813196</t>
+  </si>
+  <si>
+    <t>22/07/2025 17:20:19</t>
+  </si>
+  <si>
+    <t>mauricio ortiz</t>
+  </si>
+  <si>
+    <t>juanmauricioortizocampo@gmail.com</t>
+  </si>
+  <si>
+    <t>calle 106</t>
+  </si>
+  <si>
+    <t>2011-04-04</t>
+  </si>
+  <si>
+    <t>71751689</t>
+  </si>
+  <si>
+    <t>3154118277</t>
+  </si>
+  <si>
+    <t>22/07/2025 19:03:16</t>
+  </si>
+  <si>
     <t>Subtotal Inder Gran Avenida</t>
   </si>
   <si>
-    <t>Transacciones: 40</t>
+    <t>Transacciones: 52</t>
   </si>
   <si>
     <t>TOTAL GENERAL</t>
   </si>
   <si>
-    <t>Total Transacciones: 49</t>
+    <t>Total Transacciones: 63</t>
   </si>
   <si>
     <t>Ecity-Software</t>
@@ -1227,7 +1539,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525000" cy="1905000"/>
@@ -1261,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1581,7 @@
   <cols>
     <col min="1" max="1" width="14.987565040588379" customWidth="1"/>
     <col min="2" max="2" width="16.359495162963867" customWidth="1"/>
-    <col min="3" max="3" width="33.80992126464844" customWidth="1"/>
+    <col min="3" max="3" width="34.249839782714844" customWidth="1"/>
     <col min="4" max="4" width="23.627351760864258" customWidth="1"/>
     <col min="5" max="5" width="18.269716262817383" customWidth="1"/>
     <col min="6" max="6" width="19.439945220947266" customWidth="1"/>
@@ -1422,7 +1734,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="1">
-        <v>42320</v>
+        <v>42327</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
@@ -1466,25 +1778,25 @@
         <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>42346</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" s="1">
-        <v>42314</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="8">
-        <v>2000</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>30</v>
@@ -1495,46 +1807,46 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1">
-        <v>42315</v>
+        <v>42320</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M7" s="8">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>30</v>
@@ -1545,46 +1857,46 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1">
+        <v>42314</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="1">
-        <v>42276</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="8">
-        <v>6000</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>30</v>
@@ -1595,46 +1907,46 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1">
-        <v>42252</v>
+        <v>42315</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M9" s="8">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>30</v>
@@ -1645,46 +1957,46 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1">
-        <v>42253</v>
+        <v>42276</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M10" s="8">
         <v>6000</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>30</v>
@@ -1695,40 +2007,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1">
-        <v>42254</v>
+        <v>42252</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M11" s="8">
         <v>4500</v>
@@ -1745,46 +2057,46 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1">
-        <v>42278</v>
+        <v>42253</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M12" s="8">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>30</v>
@@ -1795,46 +2107,46 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1">
-        <v>42279</v>
+        <v>42254</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M13" s="8">
         <v>4500</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>30</v>
@@ -1844,338 +2156,338 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="9">
-        <v>38500</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1">
+        <v>42278</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42279</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="1">
-        <v>42260</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="9">
+        <v>47500</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="8">
-        <v>6000</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="1">
-        <v>42261</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="8">
-        <v>6000</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="1">
+        <v>42260</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="8">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="1">
-        <v>42273</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="8">
-        <v>4500</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="O18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J19" s="1">
-        <v>42247</v>
+        <v>42261</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M19" s="8">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1">
+        <v>42273</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="1">
-        <v>42248</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="8">
-        <v>4000</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="1">
+        <v>42247</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="1">
-        <v>42251</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="M21" s="8">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>122</v>
@@ -2184,248 +2496,248 @@
         <v>30</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="1">
+        <v>42248</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="1">
-        <v>42258</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" s="8">
-        <v>84000</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="O22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="1">
+        <v>42251</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="1">
-        <v>42263</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="8">
-        <v>2000</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J24" s="1">
-        <v>42267</v>
+        <v>42258</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M24" s="8">
-        <v>4500</v>
+        <v>84000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J25" s="1">
-        <v>42240</v>
+        <v>42263</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M25" s="8">
         <v>2000</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1">
-        <v>42241</v>
+        <v>42267</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M26" s="8">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>155</v>
@@ -2434,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -2460,22 +2772,22 @@
         <v>161</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J27" s="1">
-        <v>42243</v>
+        <v>42240</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M27" s="8">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>163</v>
@@ -2484,1527 +2796,2227 @@
         <v>30</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="1">
+        <v>42241</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="1">
-        <v>42237</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="8">
-        <v>4500</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="O28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J29" s="1">
-        <v>42238</v>
+        <v>42243</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M29" s="8">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J30" s="1">
-        <v>42277</v>
+        <v>42237</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M30" s="8">
         <v>4500</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="J31" s="1">
+        <v>42238</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="1">
-        <v>42293</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" s="8">
-        <v>4500</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="O31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="J32" s="1">
-        <v>42285</v>
+        <v>42277</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M32" s="8">
         <v>4500</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J33" s="1">
-        <v>42286</v>
+        <v>42293</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M33" s="8">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J34" s="1">
-        <v>42287</v>
+        <v>42285</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M34" s="8">
         <v>4500</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="1">
+        <v>42286</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J35" s="1">
-        <v>42288</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" s="8">
-        <v>4500</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="O35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J36" s="1">
-        <v>42289</v>
+        <v>42287</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M36" s="8">
         <v>4500</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J37" s="1">
-        <v>42301</v>
+        <v>42288</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="M37" s="8">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J38" s="1">
-        <v>42304</v>
+        <v>42289</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M38" s="8">
         <v>4500</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="J39" s="1">
+        <v>42301</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M39" s="8">
+        <v>6000</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" s="1">
-        <v>42305</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="8">
-        <v>4500</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="O39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J40" s="1">
-        <v>42295</v>
+        <v>42304</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M40" s="8">
         <v>4500</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="J41" s="1">
-        <v>42296</v>
+        <v>42305</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M41" s="8">
         <v>4500</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J42" s="1">
-        <v>42297</v>
+        <v>42295</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M42" s="8">
         <v>4500</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J43" s="1">
-        <v>42316</v>
+        <v>42296</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M43" s="8">
         <v>4500</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J44" s="1">
-        <v>42317</v>
+        <v>42297</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M44" s="8">
         <v>4500</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J45" s="1">
-        <v>42307</v>
+        <v>42316</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M45" s="8">
         <v>4500</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J46" s="1">
-        <v>42308</v>
+        <v>42317</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M46" s="8">
         <v>4500</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="J47" s="1">
-        <v>42309</v>
+        <v>42307</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M47" s="8">
         <v>4500</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J48" s="1">
-        <v>42310</v>
+        <v>42308</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M48" s="8">
         <v>4500</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="J49" s="1">
-        <v>42311</v>
+        <v>42309</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M49" s="8">
         <v>4500</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J50" s="1">
-        <v>42321</v>
+        <v>42310</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M50" s="8">
         <v>4500</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J51" s="1">
-        <v>42322</v>
+        <v>42311</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M51" s="8">
         <v>4500</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="J52" s="1">
+        <v>42321</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M52" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52" s="1">
-        <v>42324</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M52" s="8">
-        <v>2000</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="O52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J53" s="1">
-        <v>42319</v>
+        <v>42322</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M53" s="8">
         <v>4500</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J54" s="1">
-        <v>42275</v>
+        <v>42324</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M54" s="8">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>203</v>
+        <v>360</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="J55" s="1">
+        <v>42319</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M55" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J56" s="1">
+        <v>42275</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J57" s="1">
         <v>42313</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M57" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J58" s="1">
+        <v>42347</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M58" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" s="1">
+        <v>42348</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M55" s="8">
+      <c r="M59" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60" s="1">
+        <v>42349</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J61" s="1">
+        <v>42340</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="8">
+        <v>6000</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J62" s="1">
+        <v>42343</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M62" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63" s="1">
+        <v>42344</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63" s="8">
+        <v>6000</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J64" s="1">
+        <v>42345</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M64" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" s="1">
+        <v>42328</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="1">
+        <v>42330</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" s="1">
+        <v>42332</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M67" s="8">
         <v>2000</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="9">
-        <v>245500</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10">
-        <v>284000</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" ht="200" customHeight="1"/>
+      <c r="N67" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J68" s="1">
+        <v>42336</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" s="8">
+        <v>2000</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J69" s="1">
+        <v>42352</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="8">
+        <v>4500</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="9">
+        <v>295000</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="10">
+        <v>342500</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" s="6"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" ht="200" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A75:O75"/>
   </mergeCells>
   <headerFooter/>
   <drawing r:id="rId1"/>
